--- a/Test_usando_il_modello_6.xlsx
+++ b/Test_usando_il_modello_6.xlsx
@@ -440,427 +440,427 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45.91096769117618</v>
+        <v>44.91024457687308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31.81594137431136</v>
+        <v>31.1004705924814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35.08179537289033</v>
+        <v>33.44928385120062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32.27049842884719</v>
+        <v>30.50219492047529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31.44826634090498</v>
+        <v>29.4914735530908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32.01634071079647</v>
+        <v>30.58034994686383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31.94158285615643</v>
+        <v>30.5342980422547</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27.90620708436299</v>
+        <v>26.39236306066022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30.22863471511945</v>
+        <v>29.304517261602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24.15842806392396</v>
+        <v>22.75133088443462</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23.07465297988742</v>
+        <v>20.20505052713136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26.73325007542851</v>
+        <v>24.86361429121439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25.71572617954476</v>
+        <v>24.08433726047397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22.03523308238712</v>
+        <v>20.81723724954657</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23.74910538368479</v>
+        <v>22.04450171303318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24.56438684539563</v>
+        <v>23.24122132136057</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.80761242336632</v>
+        <v>16.96383853129853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>24.61307254693307</v>
+        <v>23.92276582094578</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19.34236504132213</v>
+        <v>18.90531034016558</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.98467101706117</v>
+        <v>18.53584936594225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20.26027824823805</v>
+        <v>18.94988717266429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17.57900682198351</v>
+        <v>16.41575059825266</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18.6406908819182</v>
+        <v>18.24137714446459</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17.98765441108515</v>
+        <v>17.02956144594984</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>21.12306954175602</v>
+        <v>20.10821738624739</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17.18497513415073</v>
+        <v>16.66087739432123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14.76460122987962</v>
+        <v>13.20646653887309</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18.12715689392621</v>
+        <v>17.4868882746683</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18.50809386102412</v>
+        <v>17.571693092365</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20.6617424546603</v>
+        <v>20.04514663214314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16.38629432521438</v>
+        <v>16.17094603617221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13.93002734891763</v>
+        <v>13.7614884297717</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13.56178868317932</v>
+        <v>13.23913302507742</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12.6396367448888</v>
+        <v>11.77958678874597</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15.6058750306276</v>
+        <v>14.89096318459261</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15.53226437889793</v>
+        <v>15.21138665783127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14.81263876993631</v>
+        <v>14.75788296705673</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14.23321098731986</v>
+        <v>13.59628116837121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16.10984934395839</v>
+        <v>15.52413503295918</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15.76606937659506</v>
+        <v>15.24470016550046</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14.87404945446579</v>
+        <v>14.55825393397043</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12.82377518795522</v>
+        <v>11.62602657736301</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13.52842030253439</v>
+        <v>13.21852259392912</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>12.38102824369679</v>
+        <v>11.42118202959637</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.62305039363682</v>
+        <v>9.708072204283781</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12.11858703420842</v>
+        <v>11.87507064985761</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12.19747415472455</v>
+        <v>11.5745201673848</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12.77632458984684</v>
+        <v>12.70533541660086</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.40498397144384</v>
+        <v>11.11674282450107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13.8133933508557</v>
+        <v>13.30560760149967</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11.96138164106793</v>
+        <v>11.69147923261556</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11.30711947897001</v>
+        <v>10.66323855626308</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13.45520654618716</v>
+        <v>13.37891643501271</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12.91448983135248</v>
+        <v>12.71995897032764</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12.24458143790346</v>
+        <v>11.95656595303555</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10.49968579367302</v>
+        <v>10.12427590814369</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11.27474076279685</v>
+        <v>11.08991099596042</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11.94974028816748</v>
+        <v>11.28533242400127</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11.83504563147264</v>
+        <v>11.363079853361</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>12.04437243328721</v>
+        <v>11.84699606070964</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12.31960960194701</v>
+        <v>12.42052143102529</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>14.80924460644621</v>
+        <v>14.88670061579825</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15.40535244388477</v>
+        <v>14.92285305213528</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11.03508923507471</v>
+        <v>10.5118017807892</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>13.31015536973868</v>
+        <v>13.29402729500202</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>11.68323616604079</v>
+        <v>11.36884843133092</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>14.04992381714356</v>
+        <v>13.82130249812772</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13.94592985626556</v>
+        <v>14.04602944071382</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12.52938898265364</v>
+        <v>12.60052375596351</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.801754145996</v>
+        <v>10.80145867158419</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>13.57416254243395</v>
+        <v>13.53639949653072</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>11.01429408649773</v>
+        <v>11.14616153407798</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>13.13469171897609</v>
+        <v>13.38151543737715</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8.267795525219697</v>
+        <v>8.48638514080676</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10.12332733344422</v>
+        <v>10.29810235062706</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10.58884792276348</v>
+        <v>10.75956079182941</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>11.81771879233784</v>
+        <v>11.77416674345761</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11.77182519228455</v>
+        <v>12.08802315026674</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>11.44654708308045</v>
+        <v>11.92693895276341</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>14.02010069370107</v>
+        <v>14.27900866815813</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>12.17584338278667</v>
+        <v>12.30565253705163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>13.63849002018276</v>
+        <v>13.70256912576892</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13.35458182720282</v>
+        <v>13.49961120949305</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10.24116279149814</v>
+        <v>10.1748617830755</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12.07705037012326</v>
+        <v>11.99826221713468</v>
       </c>
     </row>
   </sheetData>
